--- a/kineto-masaj-acasa/Orase.xlsx
+++ b/kineto-masaj-acasa/Orase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93ea7125ab3abd43/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93ea7125ab3abd43/Files/Firma/Git/fiziosearch.github.io/kineto-masaj-acasa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8565D3A0-37C5-49A9-9D5B-1EA822E089CF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B12BEB-F13D-4D6F-A17C-9B39FC12CDE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +547,12 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f>B1</f>
+        <v>Abrud,Adjud,Agnita,Aiud,Alba Iulia,Aleșd,Alexandria,Amara,Anina,Aninoasa,Arad,Ardud,Avrig,Azuga,Babadag,Băbeni,Bacău,Baia de Aramă,Baia de Arieș,Baia Mare,Baia Sprie,Băicoi,Băile Govora,Băile Herculane,Băile Olănești,Băile Tușnad,Băilești,Bălan,Bălcești,Balș,Baraolt,Bârlad,Bechet,Beclean,Beiuș,Berbești,Berești,Bicaz,Bistrița,Blaj,Bocșa,Boldești-Scăeni,Bolintin-Vale,Borșa,Borsec,Botoșani,Brad,Bragadiru,Brăila,Brașov,Breaza,Brezoi,Broșteni,Bucecea,București,Budești,Buftea,Buhuși,Bumbești-Jiu,Bușteni,Buzău,Buziaș,Cajvana,Calafat,Călan,Călărași,Călimănești,Câmpeni,Câmpia Turzii,Câmpina,Câmpulung Moldovenesc,Câmpulung,Caracal,Caransebeș,Carei,Cavnic,Căzănești,Cehu Silvaniei,Cernavodă,Chișineu-Criș,Chitila,Ciacova,Cisnădie,Cluj-Napoca,Codlea,Comănești,Comarnic,Constanța,Copșa Mică,Corabia,Costești,Covasna,Craiova,Cristuru Secuiesc,Cugir,Curtea de Argeș,Curtici,Dăbuleni,Darabani,Dărmănești,Dej,Deta,Deva,Dolhasca,Dorohoi,Drăgănești-Olt,Drăgășani,Dragomirești,Drobeta-Turnu Severin,Dumbrăveni,Eforie,Făgăraș,Făget,Fălticeni,Făurei,Fetești,Fieni,Fierbinți-Târg,Filiași,Flămânzi,Focșani,Frasin,Fundulea,Găești,Galați,Gătaia,Geoagiu,Gheorgheni,Gherla,Ghimbav,Giurgiu,Gura Humorului,Hârlău,Hârșova,Hațeg,Horezu,Huedin,Hunedoara,Huși,Ianca,Iași,Iernut,Ineu,Însurăței,Întorsura Buzăului,Isaccea,Jibou,Jimbolia,Lehliu Gară,Lipova,Liteni,Livada,Luduș,Lugoj,Lupeni,Măcin,Măgurele,Mangalia,Mărășești,Marghita,Medgidia,Mediaș,Miercurea Ciuc,Miercurea Nirajului,Miercurea Sibiului,Mihăilești,Milișăuți,Mioveni,Mizil,Moinești,Moldova Nouă,Moreni,Motru,Murfatlar,Murgeni,Nădlac,Năsăud,Năvodari,Negrești,Negrești-Oaș,Negru Vodă,Nehoiu,Novaci,Nucet,Ocna Mureș,Ocna Sibiului,Ocnele Mari,Odobești,Odorheiu Secuiesc,Oltenița,Onești,Oradea,Orăștie,Oravița,Orșova,Oțelu Roșu,Otopeni,Ovidiu,Panciu,Pâncota,Pantelimon,Pașcani,Pătârlagele,Pecica,Petrila,Petroșani,Piatra Neamț,Piatra-Olt,Pitești,Ploiești,Plopeni,Podu Iloaiei,Pogoanele,Popești-Leordeni,Potcoava,Predeal,Pucioasa,Răcari,Rădăuți,Râmnicu Sărat,Râmnicu Vâlcea,Râșnov,Recaș,Reghin,Reșița,Roman,Roșiorii de Vede,Rovinari,Roznov,Rupea,Săcele,Săcueni,Salcea,Săliște,Săliștea de Sus,Salonta,Sângeorgiu de Pădure,Sângeorz-Băi,Sânnicolau Mare,Sântana,Sărmașu,Satu Mare,Săveni,Scornicești,Sebeș,Sebiș,Segarcea,Seini,Sfântu Gheorghe,Sibiu,Sighetu Marmației,Sighișoara,Simeria,Șimleu Silvaniei,Sinaia,Siret,Slănic,Slănic-Moldova,Slatina,Slobozia,Solca,Șomcuta Mare,Sovata,Ștefănești, Argeș,Ștefănești, Botoșani,Ștei,Strehaia,Suceava,Sulina,Tălmaciu,Țăndărei,Târgoviște,Târgu Bujor,Târgu Cărbunești,Târgu Frumos,Târgu Jiu,Târgu Lăpuș,Târgu Mureș,Târgu Neamț,Târgu Ocna,Târgu Secuiesc,Târnăveni,Tășnad,Tăuții-Măgherăuș,Techirghiol,Tecuci,Teiuș,Țicleni,Timișoara,Tismana,Titu,Toplița,Topoloveni,Tulcea,Turceni,Turda,Turnu Măgurele,Ulmeni,Ungheni,Uricani,Urlați,Urziceni,Valea lui Mihai,Vălenii de Munte,Vânju Mare,Vașcău,Vaslui,Vatra Dornei,Vicovu de Sus,Victoria,Videle,Vișeu de Sus,Vlăhița,Voluntari,Vulcan,Zalău,Zărnești,Zimnicea,Zlatna</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
